--- a/Excel/Neerslagpatronen_2024.xlsx
+++ b/Excel/Neerslagpatronen_2024.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Neerslagstatistiek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9D4FE-CD43-471A-8D0C-45C6E9D2D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B4FAF-2898-4BEC-9824-8522FE61B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD075C85-C3E7-4000-97DF-4B9F110121E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="12H" sheetId="2" r:id="rId1"/>
-    <sheet name="24H" sheetId="1" r:id="rId2"/>
+    <sheet name="Toelichting" sheetId="3" r:id="rId1"/>
+    <sheet name="12H" sheetId="2" r:id="rId2"/>
+    <sheet name="24H" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>UNIFORM</t>
   </si>
@@ -58,13 +59,115 @@
   </si>
   <si>
     <t>LANG</t>
+  </si>
+  <si>
+    <t>In 2004 publiceerde STOWA zeven neerslagpatronen die tezamen een representatieve afspiegeling moesten vormen voor het tijdverloop van alle neerslaggebeurtenissen die je in het veld kunt tegenkomen.</t>
+  </si>
+  <si>
+    <t>De patronen waren zo vormgegeven dat de kans op vóórkomen op elk patroon ongeveer even groot zou zijn.</t>
+  </si>
+  <si>
+    <t>STOWA onderscheidde drie hoofdtypes: buien met één piek, buien met twee pieken en buien zonder piek</t>
+  </si>
+  <si>
+    <t>Voor buien met één piek werd onderscheid gemaakt naar type Hoog, MiddelHoog, MiddelLaag en Laag</t>
+  </si>
+  <si>
+    <t>Voor buien met twee pieken werd onderscheid gemaakt naar subtype Kort en Lang (de twee pieken komen kort op elkaar of lang na elkaar)</t>
+  </si>
+  <si>
+    <t>Buien zonder piek kregen geen subclassificatie en werden geschaard onder de noemer 'Uniform'</t>
+  </si>
+  <si>
+    <t>De zeven buipatronen werden afgeleid en gepubliceerd voor de volgende buiduren (in uren): 24, 48, 96, 192, 216</t>
+  </si>
+  <si>
+    <t>In de jaren erna volgden diverse updates van de neerslagstatistieken: in 2015, 2019 en 2024. Echter de buipatronen en hun kanstoedeling werden niet geactualiseerd.</t>
+  </si>
+  <si>
+    <t>De statistieken van 2019 introduceerden echter ook de statistiek voor korte neerslagduren: vanaf 10 minuten.</t>
+  </si>
+  <si>
+    <t>Voor deze statistieken van korte duur zijn nooit statistieken voor het tijdsverloop gepubliceerd.</t>
+  </si>
+  <si>
+    <t>Vandaar het initiatief voor dit werkboek. In diverse werkbladen staan door mij eigenhandig afgeleide buipatronen voor de korte duren en hun kanstoedeling.</t>
+  </si>
+  <si>
+    <t>Dit werkboek is een groeidocument.</t>
+  </si>
+  <si>
+    <t>Uur</t>
+  </si>
+  <si>
+    <t>Klimaatscenario</t>
+  </si>
+  <si>
+    <t>STOWA2024_HUIDIG jaarrond</t>
+  </si>
+  <si>
+    <t>STOWA2024_HUIDIG winter</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>In deze analyse identificeerde ik alle gebeurtenissen met een duur van 12 uur waarvan het volume gemiddeld 10x per jaar worden overschreden.</t>
+  </si>
+  <si>
+    <t>Vervolgens draaide ik aan drempelwaarden in het classificatie-algoritme om te komen tot een kansverdeling waarbij ieder patroon een ongeveer even grote kans kreeg.</t>
+  </si>
+  <si>
+    <t>Het algoritme en de drempelwaarden:</t>
+  </si>
+  <si>
+    <t>2. Als er 4 of meer uren zitten tussen twee pieken, waarbij de laagste piek ten minste 19.2% van het buivolume bevat: type Kort</t>
+  </si>
+  <si>
+    <t>1. Als er zes of meer uren zitten tussen twee pieken, waarbij de laagste piek  ten minste 20.7% van het buivolume bevat: type Lang</t>
+  </si>
+  <si>
+    <t>0. Een 'piek' wordt gedefinieerd als een blok van 2 uren</t>
+  </si>
+  <si>
+    <t>3. Als er meer dan 88.8% van het buivolume in een piek zit: type Hoog</t>
+  </si>
+  <si>
+    <t>5. Als er meer dan 65.1% van het buivolume in een piek zit: type MiddelLaag</t>
+  </si>
+  <si>
+    <t>4. Als er meer dan 75.8% van het buivolume in een piek zit: type MiddelHoog</t>
+  </si>
+  <si>
+    <t>6. Als er meer dan 56.3% van het buivolume in een piek zit: type Laag</t>
+  </si>
+  <si>
+    <t>7. Anders: type Uniform</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>De neerslagpatronen voor de 12-uursbuien zijn afgeleid van de patronen voor de 24-uursbuien. Het verloop is grotendeels handmatig gemaakt, zodanig dat wordt voldaan aan de onderstaande classificatieregels.</t>
+  </si>
+  <si>
+    <t>De kanstoedeling over deze buipatronen kwam tot stand door de langjarige toetsingsreeks (STOWA2019, huidig klimaat) te analyseren met een POT-analyse met duur 12 uur.</t>
+  </si>
+  <si>
+    <t>Inleiding en aanleiding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +179,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,11 +230,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -139,6 +255,1877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1600"/>
+              <a:t>Patronen 12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+              <a:t>H</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNIFORM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.10580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7400000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9300000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LAAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MIDDELLAAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MIDDELHOOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'12H'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LANG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12H'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12H'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-85DA-4C66-9067-C51C1BF710B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68350607"/>
+        <c:axId val="1685513007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68350607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1050"/>
+                  <a:t>Tijd (uren)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1685513007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1685513007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1050"/>
+                  <a:t>Fractie van de neerslagsom (-)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68350607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91FD7D5-7948-C984-DF16-61ADAB3AC1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,412 +2444,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9724A-F71C-467B-BA92-3FDAFE3320AB}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F19ECD-9369-4D7D-A50B-B4CD8E19229F}">
+  <dimension ref="B1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>'24H'!A1</f>
-        <v>UNIFORM</v>
-      </c>
-      <c r="B1" t="str">
-        <f>'24H'!B1</f>
-        <v>LAAG</v>
-      </c>
-      <c r="C1" t="str">
-        <f>'24H'!C1</f>
-        <v>MIDDELLAAG</v>
-      </c>
-      <c r="D1" t="str">
-        <f>'24H'!D1</f>
-        <v>MIDDELHOOG</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'24H'!E1</f>
-        <v>HOOG</v>
-      </c>
-      <c r="F1" t="str">
-        <f>'24H'!F1</f>
-        <v>KORT</v>
-      </c>
-      <c r="G1" t="str">
-        <f>'24H'!G1</f>
-        <v>LANG</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>SUM('24H'!A2:A3)</f>
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="B2">
-        <f>SUM('24H'!B2:B3)</f>
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <f>SUM('24H'!C2:C3)</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="D2">
-        <f>SUM('24H'!D2:D3)</f>
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="E2">
-        <f>SUM('24H'!E2:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>SUM('24H'!F2:F3)</f>
-        <v>3.7999999999999996E-3</v>
-      </c>
-      <c r="G2">
-        <f>SUM('24H'!G2:G3)</f>
-        <v>9.9099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>SUM('24H'!A4:A5)</f>
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="B3">
-        <f>SUM('24H'!B4:B5)</f>
-        <v>6.93E-2</v>
-      </c>
-      <c r="C3">
-        <f>SUM('24H'!C4:C5)</f>
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="D3">
-        <f>SUM('24H'!D4:D5)</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="E3">
-        <f>SUM('24H'!E4:E5)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F3">
-        <f>SUM('24H'!F4:F5)</f>
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="G3">
-        <f>SUM('24H'!G4:G5)</f>
-        <v>0.35439999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>SUM('24H'!A6:A7)</f>
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="B4">
-        <f>SUM('24H'!B6:B7)</f>
-        <v>5.4400000000000004E-2</v>
-      </c>
-      <c r="C4">
-        <f>SUM('24H'!C6:C7)</f>
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <f>SUM('24H'!D6:D7)</f>
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="E4">
-        <f>SUM('24H'!E6:E7)</f>
-        <v>1.06E-2</v>
-      </c>
-      <c r="F4">
-        <f>SUM('24H'!F6:F7)</f>
-        <v>0.24209999999999998</v>
-      </c>
-      <c r="G4">
-        <f>SUM('24H'!G6:G7)</f>
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>SUM('24H'!A8:A9)</f>
-        <v>5.7400000000000007E-2</v>
-      </c>
-      <c r="B5">
-        <f>SUM('24H'!B8:B9)</f>
-        <v>5.9399999999999994E-2</v>
-      </c>
-      <c r="C5">
-        <f>SUM('24H'!C8:C9)</f>
-        <v>6.5200000000000008E-2</v>
-      </c>
-      <c r="D5">
-        <f>SUM('24H'!D8:D9)</f>
-        <v>4.2499999999999996E-2</v>
-      </c>
-      <c r="E5">
-        <f>SUM('24H'!E8:E9)</f>
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <f>SUM('24H'!F8:F9)</f>
-        <v>0.17330000000000001</v>
-      </c>
-      <c r="G5">
-        <f>SUM('24H'!G8:G9)</f>
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>SUM('24H'!A10:A11)</f>
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="B6">
-        <f>SUM('24H'!B10:B11)</f>
-        <v>0.11230000000000001</v>
-      </c>
-      <c r="C6">
-        <f>SUM('24H'!C10:C11)</f>
-        <v>0.1104</v>
-      </c>
-      <c r="D6">
-        <f>SUM('24H'!D10:D11)</f>
-        <v>8.77E-2</v>
-      </c>
-      <c r="E6">
-        <f>SUM('24H'!E10:E11)</f>
-        <v>5.6600000000000004E-2</v>
-      </c>
-      <c r="F6">
-        <f>SUM('24H'!F10:F11)</f>
-        <v>1.43E-2</v>
-      </c>
-      <c r="G6">
-        <f>SUM('24H'!G10:G11)</f>
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>SUM('24H'!A12:A13)</f>
-        <v>0.16120000000000001</v>
-      </c>
-      <c r="B7">
-        <f>SUM('24H'!B12:B13)</f>
-        <v>0.187</v>
-      </c>
-      <c r="C7">
-        <f>SUM('24H'!C12:C13)</f>
-        <v>0.28400000000000003</v>
-      </c>
-      <c r="D7">
-        <f>SUM('24H'!D12:D13)</f>
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="E7">
-        <f>SUM('24H'!E12:E13)</f>
-        <v>0.61109999999999998</v>
-      </c>
-      <c r="F7">
-        <f>SUM('24H'!F12:F13)</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G7">
-        <f>SUM('24H'!G12:G13)</f>
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>SUM('24H'!A14:A15)</f>
-        <v>0.11979999999999999</v>
-      </c>
-      <c r="B8">
-        <f>SUM('24H'!B14:B15)</f>
-        <v>0.1193</v>
-      </c>
-      <c r="C8">
-        <f>SUM('24H'!C14:C15)</f>
-        <v>0.1636</v>
-      </c>
-      <c r="D8">
-        <f>SUM('24H'!D14:D15)</f>
-        <v>0.22359999999999999</v>
-      </c>
-      <c r="E8">
-        <f>SUM('24H'!E14:E15)</f>
-        <v>0.23409999999999997</v>
-      </c>
-      <c r="F8">
-        <f>SUM('24H'!F14:F15)</f>
-        <v>1.18E-2</v>
-      </c>
-      <c r="G8">
-        <f>SUM('24H'!G14:G15)</f>
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>SUM('24H'!A16:A17)</f>
-        <v>7.9300000000000009E-2</v>
-      </c>
-      <c r="B9">
-        <f>SUM('24H'!B16:B17)</f>
-        <v>0.10669999999999999</v>
-      </c>
-      <c r="C9">
-        <f>SUM('24H'!C16:C17)</f>
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="D9">
-        <f>SUM('24H'!D16:D17)</f>
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="E9">
-        <f>SUM('24H'!E16:E17)</f>
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <f>SUM('24H'!F16:F17)</f>
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="G9">
-        <f>SUM('24H'!G16:G17)</f>
-        <v>6.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>SUM('24H'!A18:A19)</f>
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="B10">
-        <f>SUM('24H'!B18:B19)</f>
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="C10">
-        <f>SUM('24H'!C18:C19)</f>
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="D10">
-        <f>SUM('24H'!D18:D19)</f>
-        <v>5.3000000000000005E-2</v>
-      </c>
-      <c r="E10">
-        <f>SUM('24H'!E18:E19)</f>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <f>SUM('24H'!F18:F19)</f>
-        <v>0.14269999999999999</v>
-      </c>
-      <c r="G10">
-        <f>SUM('24H'!G18:G19)</f>
-        <v>1.7899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>SUM('24H'!A20:A21)</f>
-        <v>5.91E-2</v>
-      </c>
-      <c r="B11">
-        <f>SUM('24H'!B20:B21)</f>
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="C11">
-        <f>SUM('24H'!C20:C21)</f>
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <f>SUM('24H'!D20:D21)</f>
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="E11">
-        <f>SUM('24H'!E20:E21)</f>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="F11">
-        <f>SUM('24H'!F20:F21)</f>
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="G11">
-        <f>SUM('24H'!G20:G21)</f>
-        <v>7.2899999999999993E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>SUM('24H'!A22:A23)</f>
-        <v>5.9399999999999994E-2</v>
-      </c>
-      <c r="B12">
-        <f>SUM('24H'!B22:B23)</f>
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="C12">
-        <f>SUM('24H'!C22:C23)</f>
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="D12">
-        <f>SUM('24H'!D22:D23)</f>
-        <v>2.3E-2</v>
-      </c>
-      <c r="E12">
-        <f>SUM('24H'!E22:E23)</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F12">
-        <f>SUM('24H'!F22:F23)</f>
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="G12">
-        <f>SUM('24H'!G22:G23)</f>
-        <v>0.30170000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f>SUM('24H'!A24:A25)</f>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="B13">
-        <f>SUM('24H'!B24:B25)</f>
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="C13">
-        <f>SUM('24H'!C24:C25)</f>
-        <v>2.46E-2</v>
-      </c>
-      <c r="D13">
-        <f>SUM('24H'!D24:D25)</f>
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="E13">
-        <f>SUM('24H'!E24:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>SUM('24H'!F24:F25)</f>
-        <v>1.89E-2</v>
-      </c>
-      <c r="G13">
-        <f>SUM('24H'!G24:G25)</f>
-        <v>0.1007</v>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9724A-F71C-467B-BA92-3FDAFE3320AB}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'24H'!A1</f>
+        <v>UNIFORM</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'24H'!B1</f>
+        <v>LAAG</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'24H'!C1</f>
+        <v>MIDDELLAAG</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'24H'!D1</f>
+        <v>MIDDELHOOG</v>
+      </c>
+      <c r="F1" t="str">
+        <f>'24H'!E1</f>
+        <v>HOOG</v>
+      </c>
+      <c r="G1" t="str">
+        <f>'24H'!F1</f>
+        <v>KORT</v>
+      </c>
+      <c r="H1" t="str">
+        <f>'24H'!G1</f>
+        <v>LANG</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>SUM('24H'!A2:A3)</f>
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <f>SUM('24H'!E2:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM('24H'!F2:F3)</f>
+        <v>3.7999999999999996E-3</v>
+      </c>
+      <c r="H2">
+        <f>SUM('24H'!G2:G3)</f>
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>SUM('24H'!A4:A5)</f>
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <f>SUM('24H'!F4:F5)</f>
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <f>SUM('24H'!G4:G5)</f>
+        <v>0.35439999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>SUM('24H'!A6:A7)</f>
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <f>SUM('24H'!F6:F7)</f>
+        <v>0.24209999999999998</v>
+      </c>
+      <c r="H4">
+        <f>SUM('24H'!G6:G7)</f>
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>SUM('24H'!A8:A9)</f>
+        <v>5.7400000000000007E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <f>SUM('24H'!F8:F9)</f>
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="H5">
+        <f>SUM('24H'!G8:G9)</f>
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>SUM('24H'!A10:A11)</f>
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.04</v>
+      </c>
+      <c r="F6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <f>SUM('24H'!F10:F11)</f>
+        <v>1.43E-2</v>
+      </c>
+      <c r="H6">
+        <f>SUM('24H'!G10:G11)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>SUM('24H'!A12:A13)</f>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <f>SUM('24H'!F12:F13)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <f>SUM('24H'!G12:G13)</f>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>SUM('24H'!A14:A15)</f>
+        <v>0.11979999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.15</v>
+      </c>
+      <c r="D8">
+        <v>0.15</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <f>SUM('24H'!F14:F15)</f>
+        <v>1.18E-2</v>
+      </c>
+      <c r="H8">
+        <f>SUM('24H'!G14:G15)</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>SUM('24H'!A16:A17)</f>
+        <v>7.9300000000000009E-2</v>
+      </c>
+      <c r="C9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <f>SUM('24H'!F16:F17)</f>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H9">
+        <f>SUM('24H'!G16:G17)</f>
+        <v>6.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>SUM('24H'!A18:A19)</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+      <c r="D10">
+        <v>0.04</v>
+      </c>
+      <c r="E10">
+        <v>0.03</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <f>SUM('24H'!F18:F19)</f>
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="H10">
+        <f>SUM('24H'!G18:G19)</f>
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUM('24H'!A20:A21)</f>
+        <v>5.91E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <f>SUM('24H'!F20:F21)</f>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="H11">
+        <f>SUM('24H'!G20:G21)</f>
+        <v>7.2899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>SUM('24H'!A22:A23)</f>
+        <v>5.9399999999999994E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.03</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <f>SUM('24H'!F22:F23)</f>
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <f>SUM('24H'!G22:G23)</f>
+        <v>0.30170000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>SUM('24H'!A24:A25)</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <f>SUM('24H'!E24:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>SUM('24H'!F24:F25)</f>
+        <v>1.89E-2</v>
+      </c>
+      <c r="H13">
+        <f>SUM('24H'!G24:G25)</f>
+        <v>0.1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G2:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.0752269779507101E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.0415045395590107E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.134889753566796</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.16472114137483801</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.29442282749675702</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12710765239948099</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.17769130998703001</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM(B17:H17)</f>
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.0752351097178702E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.13479623824451401</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.23824451410658301</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.15360501567398099</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.5830721003134807E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.18495297805642599</v>
+      </c>
+      <c r="I18" s="2">
+        <f>SUM(B18:H18)</f>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B237B4-5A47-49E4-B83C-C9E265F32E86}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/Neerslagpatronen_2024.xlsx
+++ b/Excel/Neerslagpatronen_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Neerslagstatistiek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B4FAF-2898-4BEC-9824-8522FE61B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9721370-14CC-489A-953F-8F40871E761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD075C85-C3E7-4000-97DF-4B9F110121E5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DD075C85-C3E7-4000-97DF-4B9F110121E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>UNIFORM</t>
   </si>
@@ -159,13 +159,25 @@
   <si>
     <t>Inleiding en aanleiding</t>
   </si>
+  <si>
+    <t>DUUR</t>
+  </si>
+  <si>
+    <t>FRACTIE</t>
+  </si>
+  <si>
+    <t>PATROON</t>
+  </si>
+  <si>
+    <t>UUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -238,8 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2447,143 +2462,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F19ECD-9369-4D7D-A50B-B4CD8E19229F}">
   <dimension ref="B1:B31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -2599,20 +2614,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>LANG</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>9.9099999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2733,7 +2748,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2791,7 +2806,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2820,7 +2835,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2878,7 +2893,7 @@
         <v>6.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2907,7 +2922,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2936,7 +2951,7 @@
         <v>7.2899999999999993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2965,7 +2980,7 @@
         <v>0.30170000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2995,40 +3010,40 @@
         <v>0.1007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
-        <f>SUM(B2:B13)</f>
+        <f t="shared" ref="B14:H14" si="0">SUM(B2:B13)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C14">
-        <f>SUM(C2:C13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f>SUM(D2:D13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f>SUM(E2:E13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f>SUM(F2:F13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>SUM(G2:G13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f>SUM(H2:H13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3036,64 +3051,1594 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>2.0752269779507101E-2</v>
+        <v>0.116731517509728</v>
       </c>
       <c r="C17" s="3">
-        <v>8.0415045395590107E-2</v>
+        <v>0.11284046692607</v>
       </c>
       <c r="D17" s="3">
-        <v>0.134889753566796</v>
+        <v>0.14267185473411201</v>
       </c>
       <c r="E17" s="3">
-        <v>0.16472114137483801</v>
+        <v>0.16212710765239899</v>
       </c>
       <c r="F17" s="3">
-        <v>0.29442282749675702</v>
+        <v>0.19455252918287899</v>
       </c>
       <c r="G17" s="3">
-        <v>0.12710765239948099</v>
+        <v>0.12062256809338499</v>
       </c>
       <c r="H17" s="3">
-        <v>0.17769130998703001</v>
+        <v>0.15045395590142699</v>
       </c>
       <c r="I17" s="2">
         <f>SUM(B17:H17)</f>
-        <v>0.99999999999999922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>4.0752351097178702E-2</v>
+        <v>0.20062695924764901</v>
       </c>
       <c r="C18" s="3">
-        <v>0.13479623824451401</v>
+        <v>0.21630094043887099</v>
       </c>
       <c r="D18" s="3">
-        <v>0.23824451410658301</v>
+        <v>0.14106583072100301</v>
       </c>
       <c r="E18" s="3">
-        <v>0.15360501567398099</v>
+        <v>0.100313479623824</v>
       </c>
       <c r="F18" s="3">
-        <v>6.5830721003134807E-2</v>
+        <v>1.56739811912226E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>0.18181818181818199</v>
+        <v>0.197492163009404</v>
       </c>
       <c r="H18" s="3">
-        <v>0.18495297805642599</v>
+        <v>0.128526645768025</v>
       </c>
       <c r="I18" s="2">
         <f>SUM(B18:H18)</f>
-        <v>0.99999999999999944</v>
+        <v>0.99999999999999856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="str">
+        <f>A21&amp;"," &amp;B21&amp;"," &amp;C21 &amp;"," &amp;D21</f>
+        <v>DUUR,FRACTIE,PATROON,UUR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E85" si="1">A22&amp;"," &amp;B22&amp;"," &amp;C22 &amp;"," &amp;D22</f>
+        <v>12,0.1058,UNIFORM,1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0582,UNIFORM,2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0552,UNIFORM,3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>5.7400000000000007E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0574,UNIFORM,4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0761,UNIFORM,5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.1612,UNIFORM,6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0.11979999999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.1198,UNIFORM,7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>7.9300000000000009E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0793,UNIFORM,8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0665,UNIFORM,9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>5.91E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0591,UNIFORM,10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>5.9399999999999994E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0594,UNIFORM,11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.102,UNIFORM,12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,LAAG,1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.01</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,LAAG,2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.035,LAAG,3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0.05</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.05,LAAG,4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0.08</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.08,LAAG,5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>0.45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.45,LAAG,6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>0.15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.15,LAAG,7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.085,LAAG,8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>0.05</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.05,LAAG,9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>0.05</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.05,LAAG,10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>0.03</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.03,LAAG,11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,LAAG,12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,MIDDELLAAG,1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>0.01</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELLAAG,2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>0.02</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.02,MIDDELLAAG,3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>0.05</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.05,MIDDELLAAG,4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.07,MIDDELLAAG,5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.55,MIDDELLAAG,6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.15,MIDDELLAAG,7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>0.08</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.08,MIDDELLAAG,8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>0.04</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.04,MIDDELLAAG,9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>0.01</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELLAAG,10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>0.01</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELLAAG,11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,MIDDELLAAG,12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,MIDDELHOOG,1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.01</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELHOOG,2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>0.02</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.02,MIDDELHOOG,3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>0.02</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.02,MIDDELHOOG,4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0.04</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.04,MIDDELHOOG,5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.55,MIDDELHOOG,6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>0.25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.25,MIDDELHOOG,7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>0.05</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.05,MIDDELHOOG,8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>0.03</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.03,MIDDELHOOG,9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>0.01</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELHOOG,10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>0.01</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,MIDDELHOOG,11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,MIDDELHOOG,12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0,HOOG,1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,HOOG,2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>0.01</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,HOOG,3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>0.02</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.02,HOOG,4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.025,HOOG,5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>0.65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.65,HOOG,6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>0.25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.25,HOOG,7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.015,HOOG,8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>0.01</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,HOOG,9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>0.01</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.01,HOOG,10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.005,HOOG,11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0,HOOG,12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>3.7999999999999996E-3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0038,KORT,1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.0478,KORT,2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>0.24209999999999998</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.2421,KORT,3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0.1733,KORT,4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ref="E86:E105" si="2">A86&amp;"," &amp;B86&amp;"," &amp;C86 &amp;"," &amp;D86</f>
+        <v>12,0.0143,KORT,5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.007,KORT,6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0118,KORT,7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0403,KORT,8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.1427,KORT,9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.2403,KORT,10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0577,KORT,11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>1.89E-2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0189,KORT,12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0991,LANG,1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.3544,LANG,2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0214,LANG,3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0134,LANG,4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0058,LANG,5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0033,LANG,6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0027,LANG,7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>6.6999999999999994E-3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0067,LANG,8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0179,LANG,9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>7.2899999999999993E-2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.0729,LANG,10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>11</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.3017,LANG,11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>0.1007</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>12,0.1007,LANG,12</v>
       </c>
     </row>
   </sheetData>
@@ -3110,12 +4655,12 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +4683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
@@ -3161,7 +4706,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5.3199999999999997E-2</v>
       </c>
@@ -3184,7 +4729,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -3207,7 +4752,7 @@
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.7E-2</v>
       </c>
@@ -3230,7 +4775,7 @@
         <v>0.1242</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.3099999999999997E-2</v>
       </c>
@@ -3253,7 +4798,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.2100000000000002E-2</v>
       </c>
@@ -3276,7 +4821,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.5600000000000001E-2</v>
       </c>
@@ -3299,7 +4844,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -3322,7 +4867,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.2899999999999999E-2</v>
       </c>
@@ -3345,7 +4890,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.3200000000000002E-2</v>
       </c>
@@ -3368,7 +4913,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6.1699999999999998E-2</v>
       </c>
@@ -3391,7 +4936,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9.9500000000000005E-2</v>
       </c>
@@ -3414,7 +4959,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7.2099999999999997E-2</v>
       </c>
@@ -3437,7 +4982,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4.7699999999999999E-2</v>
       </c>
@@ -3460,7 +5005,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.9100000000000003E-2</v>
       </c>
@@ -3483,7 +5028,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4.02E-2</v>
       </c>
@@ -3506,7 +5051,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.75E-2</v>
       </c>
@@ -3529,7 +5074,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9E-2</v>
       </c>
@@ -3552,7 +5097,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2.81E-2</v>
       </c>
@@ -3575,7 +5120,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.1E-2</v>
       </c>
@@ -3598,7 +5143,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
@@ -3621,7 +5166,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2.9899999999999999E-2</v>
       </c>
@@ -3644,7 +5189,7 @@
         <v>0.18920000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.4899999999999997E-2</v>
       </c>
@@ -3667,7 +5212,7 @@
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4.7100000000000003E-2</v>
       </c>
